--- a/tables/localization_mod.xlsx
+++ b/tables/localization_mod.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Steam Games\steamapps\common\RouletteHero\Mod\ModTool\Config\Config\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\rhmod\rh-wlj-mod\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEBEC419-1088-4675-B52E-0B8B39772808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50D08F69-6B41-40C4-B135-C79032A2CAA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="252" windowWidth="30936" windowHeight="17136" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -129,10 +129,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>未来科技员工</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>工头</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -201,22 +197,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>哈立德</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>释放</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;color=#BC3000&gt;选中时&lt;/color&gt;，拆分出一个1级的复制。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;color=#BC3000&gt;选中时&lt;/color&gt;，再次旋转并选中&lt;color=#008E11&gt;{0}&lt;/color&gt;个格子，然后变为残躯。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>出售&lt;color=#008E11&gt;3&lt;/color&gt;级的自身时，使卡池中所有漆雕蝉获得等同于自身的基础属性。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -365,10 +349,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>未来科技成果可以和任意等级相等或更高的单位合成升级。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;color=#BC3000&gt;摸鱼&lt;/color&gt;的单位也会被选中，且每有一个&lt;color=#BC3000&gt;摸鱼&lt;/color&gt;单位选中数量&lt;color=#008E11&gt;+1&lt;/color&gt;。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -377,15 +357,35 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>每次刷新有&lt;color=#008E11&gt;{0}%&lt;/color&gt;概率出现&lt;color=#BC3000&gt;战吼&lt;/color&gt;单位。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>战斗胜利时，额外获得&lt;color=#008E11&gt;+{0}&lt;/color&gt;金币。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>战斗开始时，使&lt;color=#008E11&gt;{0}&lt;/color&gt;个未来科技单位获得鸟类特性。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>囚犯</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>未来科技成员</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次普通刷新有&lt;color=#008E11&gt;{0}%&lt;/color&gt;概率出现&lt;color=#BC3000&gt;战吼&lt;/color&gt;单位。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>未来科技成果可以和任意等级相等或更高的单位&lt;color=#BC3000&gt;合并升级&lt;/color&gt;。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#BC3000&gt;选中时&lt;/color&gt;，再次旋转并选中&lt;color=#008E11&gt;{0}&lt;/color&gt;个格子，然后死亡变为残躯。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -785,8 +785,8 @@
   <dimension ref="A1:X70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D62" sqref="D62"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -952,7 +952,7 @@
         <v>110001</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
@@ -960,7 +960,7 @@
         <v>111001</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
@@ -976,7 +976,7 @@
         <v>111002</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
@@ -984,7 +984,7 @@
         <v>100001</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
@@ -992,7 +992,7 @@
         <v>100002</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
@@ -1000,7 +1000,7 @@
         <v>100003</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
@@ -1008,7 +1008,7 @@
         <v>100004</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
@@ -1016,7 +1016,7 @@
         <v>100005</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
@@ -1024,7 +1024,7 @@
         <v>100006</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
@@ -1032,7 +1032,7 @@
         <v>100007</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
@@ -1040,7 +1040,7 @@
         <v>100008</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
@@ -1048,7 +1048,7 @@
         <v>100009</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
@@ -1056,7 +1056,7 @@
         <v>100010</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
@@ -1064,7 +1064,7 @@
         <v>100011</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
@@ -1072,7 +1072,7 @@
         <v>100012</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
@@ -1080,7 +1080,7 @@
         <v>100013</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
@@ -1088,7 +1088,7 @@
         <v>100014</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E22" s="1"/>
     </row>
@@ -1097,7 +1097,7 @@
         <v>100015</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
@@ -1105,7 +1105,7 @@
         <v>100016</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
@@ -1113,7 +1113,7 @@
         <v>100017</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
@@ -1121,7 +1121,7 @@
         <v>100018</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
@@ -1129,7 +1129,7 @@
         <v>100019</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
@@ -1137,7 +1137,7 @@
         <v>101001</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
@@ -1145,7 +1145,7 @@
         <v>101002</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
@@ -1153,7 +1153,7 @@
         <v>101003</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
@@ -1161,7 +1161,7 @@
         <v>101004</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
@@ -1169,7 +1169,7 @@
         <v>101005</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
@@ -1177,7 +1177,7 @@
         <v>101006</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
@@ -1185,7 +1185,7 @@
         <v>101007</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
@@ -1193,7 +1193,7 @@
         <v>101008</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
@@ -1201,7 +1201,7 @@
         <v>101009</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
@@ -1209,7 +1209,7 @@
         <v>101010</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
@@ -1217,7 +1217,7 @@
         <v>101011</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
@@ -1225,7 +1225,7 @@
         <v>101012</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
@@ -1233,7 +1233,7 @@
         <v>101013</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.25">
@@ -1241,7 +1241,7 @@
         <v>101014</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E41" s="1"/>
     </row>
@@ -1250,7 +1250,7 @@
         <v>101015</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.25">
@@ -1258,7 +1258,7 @@
         <v>101016</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>44</v>
+        <v>87</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.25">
@@ -1266,7 +1266,7 @@
         <v>101017</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.25">
@@ -1274,7 +1274,7 @@
         <v>101018</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.25">
@@ -1282,7 +1282,7 @@
         <v>101019</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.25">
@@ -1290,7 +1290,7 @@
         <v>120001</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.25">
@@ -1298,7 +1298,7 @@
         <v>120002</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.25">
@@ -1306,7 +1306,7 @@
         <v>120003</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.25">
@@ -1314,7 +1314,7 @@
         <v>120004</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.25">
@@ -1322,7 +1322,7 @@
         <v>120005</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.25">
@@ -1330,7 +1330,7 @@
         <v>120006</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.25">
@@ -1338,7 +1338,7 @@
         <v>130001</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.25">
@@ -1346,7 +1346,7 @@
         <v>130002</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.25">
@@ -1354,7 +1354,7 @@
         <v>130003</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.25">
@@ -1362,7 +1362,7 @@
         <v>130004</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.25">
@@ -1370,7 +1370,7 @@
         <v>130005</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.25">
@@ -1378,7 +1378,7 @@
         <v>130006</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.25">
@@ -1386,7 +1386,7 @@
         <v>130007</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.25">
@@ -1394,7 +1394,7 @@
         <v>130008</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.25">
@@ -1402,7 +1402,7 @@
         <v>130009</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.25">
@@ -1410,7 +1410,7 @@
         <v>131001</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.25">
@@ -1418,7 +1418,7 @@
         <v>131002</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.25">
@@ -1434,7 +1434,7 @@
         <v>131004</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.25">
@@ -1442,7 +1442,7 @@
         <v>131005</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.25">
@@ -1450,7 +1450,7 @@
         <v>131006</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.25">
@@ -1458,7 +1458,7 @@
         <v>131007</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.25">
@@ -1466,7 +1466,7 @@
         <v>131008</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.25">
@@ -1474,7 +1474,7 @@
         <v>131009</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/tables/localization_mod.xlsx
+++ b/tables/localization_mod.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\rhmod\rh-wlj-mod\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50D08F69-6B41-40C4-B135-C79032A2CAA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FB04CD6-7584-4B59-896F-396D6F967B38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="252" windowWidth="30936" windowHeight="17136" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -257,14 +257,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>每消耗&lt;color=#008E11&gt;{0}&lt;/color&gt;金币，获得一次特殊刷新机会。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>升级&lt;color=#008E11&gt;{0}&lt;/color&gt;次单位后，变为完全体。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>回合结束时，吸取随机&lt;color=#008E11&gt;{0}&lt;/color&gt;个&lt;color=#BC3000&gt;摸鱼&lt;/color&gt;单位一半基础属性。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -386,6 +378,14 @@
   </si>
   <si>
     <t>&lt;color=#BC3000&gt;选中时&lt;/color&gt;，再次旋转并选中&lt;color=#008E11&gt;{0}&lt;/color&gt;个格子，然后死亡变为残躯。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每消耗&lt;color=#008E11&gt;{0}&lt;/color&gt;金币，使所有单位攻击&lt;color=#008E11&gt;+{1}&lt;/color&gt;。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#008E11&gt;{0}&lt;/color&gt;次单位升级后，变为完全体。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -785,8 +785,8 @@
   <dimension ref="A1:X70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D43" sqref="D43"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -952,7 +952,7 @@
         <v>110001</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
@@ -960,7 +960,7 @@
         <v>111001</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
@@ -976,7 +976,7 @@
         <v>111002</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
@@ -984,7 +984,7 @@
         <v>100001</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
@@ -992,7 +992,7 @@
         <v>100002</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
@@ -1177,7 +1177,7 @@
         <v>101006</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
@@ -1193,7 +1193,7 @@
         <v>101008</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
@@ -1209,7 +1209,7 @@
         <v>101010</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
@@ -1225,7 +1225,7 @@
         <v>101012</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
@@ -1250,7 +1250,7 @@
         <v>101015</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>55</v>
+        <v>86</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.25">
@@ -1258,7 +1258,7 @@
         <v>101016</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.25">
@@ -1266,7 +1266,7 @@
         <v>101017</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.25">
@@ -1290,7 +1290,7 @@
         <v>120001</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.25">
@@ -1298,7 +1298,7 @@
         <v>120002</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.25">
@@ -1330,7 +1330,7 @@
         <v>120006</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.25">
@@ -1338,7 +1338,7 @@
         <v>130001</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.25">
@@ -1346,7 +1346,7 @@
         <v>130002</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.25">
@@ -1354,7 +1354,7 @@
         <v>130003</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.25">
@@ -1362,7 +1362,7 @@
         <v>130004</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.25">
@@ -1370,7 +1370,7 @@
         <v>130005</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.25">
@@ -1378,7 +1378,7 @@
         <v>130006</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.25">
@@ -1386,7 +1386,7 @@
         <v>130007</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.25">
@@ -1394,7 +1394,7 @@
         <v>130008</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.25">
@@ -1402,7 +1402,7 @@
         <v>130009</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.25">
@@ -1410,7 +1410,7 @@
         <v>131001</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.25">
@@ -1418,7 +1418,7 @@
         <v>131002</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.25">
@@ -1426,7 +1426,7 @@
         <v>131003</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.25">
@@ -1434,7 +1434,7 @@
         <v>131004</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.25">
@@ -1442,7 +1442,7 @@
         <v>131005</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.25">
@@ -1450,7 +1450,7 @@
         <v>131006</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.25">
@@ -1458,7 +1458,7 @@
         <v>131007</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.25">
@@ -1466,7 +1466,7 @@
         <v>131008</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.25">
@@ -1474,7 +1474,7 @@
         <v>131009</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/tables/localization_mod.xlsx
+++ b/tables/localization_mod.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\rhmod\rh-wlj-mod\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FB04CD6-7584-4B59-896F-396D6F967B38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4D551FF-3FD0-4880-AF31-2DE5E4401ECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="252" windowWidth="30936" windowHeight="17136" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="89">
   <si>
     <t>##type</t>
   </si>
@@ -237,10 +237,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;color=#BC3000&gt;战吼&lt;/color&gt;：每有一个&lt;color=#BC3000&gt;摸鱼&lt;/color&gt;的单位治疗量&lt;color=#008E11&gt;+{0}&lt;/color&gt;。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>每当单位&lt;color=#BC3000&gt;摸鱼&lt;/color&gt;时，偷取敌人&lt;color=#008E11&gt;{0}&lt;/color&gt;攻击。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -386,6 +382,14 @@
   </si>
   <si>
     <t>&lt;color=#008E11&gt;{0}&lt;/color&gt;次单位升级后，变为完全体。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#BC3000&gt;战吼&lt;/color&gt;：每有一个&lt;color=#BC3000&gt;摸鱼&lt;/color&gt;的单位最大生命值&lt;color=#008E11&gt;+{0}&lt;/color&gt;。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每&lt;color=#BC3000&gt;旋转&lt;/color&gt;&lt;color=#008E11&gt;{0}&lt;/color&gt;次，若未到达最大等级则升级。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -785,8 +789,8 @@
   <dimension ref="A1:X70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D44" sqref="D44"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -952,7 +956,7 @@
         <v>110001</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
@@ -960,7 +964,7 @@
         <v>111001</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
@@ -976,7 +980,7 @@
         <v>111002</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
@@ -984,7 +988,7 @@
         <v>100001</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
@@ -992,7 +996,7 @@
         <v>100002</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
@@ -1169,7 +1173,7 @@
         <v>101005</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>50</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
@@ -1177,7 +1181,7 @@
         <v>101006</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
@@ -1185,7 +1189,7 @@
         <v>101007</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
@@ -1193,7 +1197,7 @@
         <v>101008</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
@@ -1201,7 +1205,7 @@
         <v>101009</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
@@ -1209,7 +1213,7 @@
         <v>101010</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
@@ -1225,7 +1229,7 @@
         <v>101012</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
@@ -1233,7 +1237,7 @@
         <v>101013</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.25">
@@ -1241,7 +1245,7 @@
         <v>101014</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E41" s="1"/>
     </row>
@@ -1250,7 +1254,7 @@
         <v>101015</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.25">
@@ -1258,7 +1262,7 @@
         <v>101016</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.25">
@@ -1266,7 +1270,7 @@
         <v>101017</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.25">
@@ -1290,7 +1294,7 @@
         <v>120001</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.25">
@@ -1298,7 +1302,7 @@
         <v>120002</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.25">
@@ -1330,7 +1334,7 @@
         <v>120006</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.25">
@@ -1338,7 +1342,7 @@
         <v>130001</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.25">
@@ -1346,7 +1350,7 @@
         <v>130002</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.25">
@@ -1354,7 +1358,7 @@
         <v>130003</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.25">
@@ -1362,7 +1366,7 @@
         <v>130004</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.25">
@@ -1370,7 +1374,7 @@
         <v>130005</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.25">
@@ -1378,7 +1382,7 @@
         <v>130006</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.25">
@@ -1386,7 +1390,7 @@
         <v>130007</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.25">
@@ -1394,7 +1398,7 @@
         <v>130008</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.25">
@@ -1402,7 +1406,7 @@
         <v>130009</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.25">
@@ -1410,7 +1414,7 @@
         <v>131001</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.25">
@@ -1418,7 +1422,7 @@
         <v>131002</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.25">
@@ -1426,7 +1430,7 @@
         <v>131003</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.25">
@@ -1434,7 +1438,7 @@
         <v>131004</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.25">
@@ -1442,7 +1446,7 @@
         <v>131005</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.25">
@@ -1450,7 +1454,7 @@
         <v>131006</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.25">
@@ -1458,7 +1462,7 @@
         <v>131007</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.25">
@@ -1466,7 +1470,7 @@
         <v>131008</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.25">
@@ -1474,7 +1478,7 @@
         <v>131009</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/tables/localization_mod.xlsx
+++ b/tables/localization_mod.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\rhmod\rh-wlj-mod\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4D551FF-3FD0-4880-AF31-2DE5E4401ECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71AC59F7-E9C2-49D4-A56F-5F28F5D3AB20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="252" windowWidth="30936" windowHeight="17136" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="360" windowWidth="15552" windowHeight="17016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="88">
   <si>
     <t>##type</t>
   </si>
@@ -233,10 +233,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>每当单位&lt;color=#BC3000&gt;摸鱼&lt;/color&gt;时，本回合攻击和护盾&lt;color=#008E11&gt;+{0}&lt;/color&gt;。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>每当单位&lt;color=#BC3000&gt;摸鱼&lt;/color&gt;时，偷取敌人&lt;color=#008E11&gt;{0}&lt;/color&gt;攻击。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -265,10 +261,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>每&lt;color=#BC3000&gt;旋转&lt;/color&gt;&lt;color=#008E11&gt;{0}&lt;/color&gt;次，若小于3级则升级。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>二号位有请</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -345,10 +337,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>战斗胜利时，额外获得&lt;color=#008E11&gt;+{0}&lt;/color&gt;金币。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>战斗开始时，使&lt;color=#008E11&gt;{0}&lt;/color&gt;个未来科技单位获得鸟类特性。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -373,14 +361,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;color=#BC3000&gt;选中时&lt;/color&gt;，再次旋转并选中&lt;color=#008E11&gt;{0}&lt;/color&gt;个格子，然后死亡变为残躯。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>每消耗&lt;color=#008E11&gt;{0}&lt;/color&gt;金币，使所有单位攻击&lt;color=#008E11&gt;+{1}&lt;/color&gt;。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;color=#008E11&gt;{0}&lt;/color&gt;次单位升级后，变为完全体。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -390,6 +370,22 @@
   </si>
   <si>
     <t>每&lt;color=#BC3000&gt;旋转&lt;/color&gt;&lt;color=#008E11&gt;{0}&lt;/color&gt;次，若未到达最大等级则升级。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#BC3000&gt;选中时&lt;/color&gt;，再次旋转并选中&lt;color=#008E11&gt;{0}&lt;/color&gt;个格子，触发&lt;color=#008E11&gt;{1}&lt;/color&gt;次后&lt;color=#BC3000&gt;摸鱼&lt;/color&gt;&lt;color=#008E11&gt;{2}&lt;/color&gt;回合。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗胜利时，额外获得&lt;color=#008E11&gt;{0}&lt;/color&gt;金币。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得金币时，再次旋转并选中&lt;color=#008E11&gt;{0}&lt;/color&gt;个格子。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每消耗&lt;color=#008E11&gt;{0}&lt;/color&gt;金币，使所有单位攻击&lt;color=#008E11&gt;+{1}&lt;/color&gt;，并死亡变为残躯。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -788,9 +784,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -956,7 +952,7 @@
         <v>110001</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
@@ -964,7 +960,7 @@
         <v>111001</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
@@ -980,7 +976,7 @@
         <v>111002</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
@@ -988,7 +984,7 @@
         <v>100001</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
@@ -996,7 +992,7 @@
         <v>100002</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
@@ -1165,7 +1161,7 @@
         <v>101004</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
@@ -1173,7 +1169,7 @@
         <v>101005</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
@@ -1181,7 +1177,7 @@
         <v>101006</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
@@ -1189,7 +1185,7 @@
         <v>101007</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
@@ -1197,7 +1193,7 @@
         <v>101008</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
@@ -1205,7 +1201,7 @@
         <v>101009</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
@@ -1213,7 +1209,7 @@
         <v>101010</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
@@ -1229,7 +1225,7 @@
         <v>101012</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
@@ -1237,7 +1233,7 @@
         <v>101013</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.25">
@@ -1245,7 +1241,7 @@
         <v>101014</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E41" s="1"/>
     </row>
@@ -1254,7 +1250,7 @@
         <v>101015</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.25">
@@ -1262,7 +1258,7 @@
         <v>101016</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.25">
@@ -1270,7 +1266,7 @@
         <v>101017</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.25">
@@ -1294,7 +1290,7 @@
         <v>120001</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.25">
@@ -1302,7 +1298,7 @@
         <v>120002</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.25">
@@ -1334,7 +1330,7 @@
         <v>120006</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.25">
@@ -1342,7 +1338,7 @@
         <v>130001</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.25">
@@ -1350,7 +1346,7 @@
         <v>130002</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.25">
@@ -1358,7 +1354,7 @@
         <v>130003</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.25">
@@ -1366,7 +1362,7 @@
         <v>130004</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.25">
@@ -1374,7 +1370,7 @@
         <v>130005</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.25">
@@ -1382,7 +1378,7 @@
         <v>130006</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.25">
@@ -1390,7 +1386,7 @@
         <v>130007</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.25">
@@ -1398,7 +1394,7 @@
         <v>130008</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.25">
@@ -1406,7 +1402,7 @@
         <v>130009</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.25">
@@ -1414,7 +1410,7 @@
         <v>131001</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.25">
@@ -1422,7 +1418,7 @@
         <v>131002</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.25">
@@ -1430,7 +1426,7 @@
         <v>131003</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.25">
@@ -1438,7 +1434,7 @@
         <v>131004</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.25">
@@ -1446,7 +1442,7 @@
         <v>131005</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.25">
@@ -1454,7 +1450,7 @@
         <v>131006</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.25">
@@ -1462,7 +1458,7 @@
         <v>131007</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.25">
@@ -1470,7 +1466,7 @@
         <v>131008</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.25">
@@ -1478,7 +1474,7 @@
         <v>131009</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/tables/localization_mod.xlsx
+++ b/tables/localization_mod.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\rhmod\rh-wlj-mod\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71AC59F7-E9C2-49D4-A56F-5F28F5D3AB20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C2F6381-CB08-41B7-A8A8-46D9F5964E84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="360" windowWidth="15552" windowHeight="17016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="252" windowWidth="30936" windowHeight="17136" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="90">
   <si>
     <t>##type</t>
   </si>
@@ -197,10 +197,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;color=#BC3000&gt;选中时&lt;/color&gt;，拆分出一个1级的复制。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>出售&lt;color=#008E11&gt;3&lt;/color&gt;级的自身时，使卡池中所有漆雕蝉获得等同于自身的基础属性。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -325,10 +321,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>购买未来科技员工时，获得&lt;color=#008E11&gt;{0}&lt;/color&gt;金币。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;color=#BC3000&gt;摸鱼&lt;/color&gt;的单位也会被选中，且每有一个&lt;color=#BC3000&gt;摸鱼&lt;/color&gt;单位选中数量&lt;color=#008E11&gt;+1&lt;/color&gt;。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -357,10 +349,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>未来科技成果可以和任意等级相等或更高的单位&lt;color=#BC3000&gt;合并升级&lt;/color&gt;。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;color=#008E11&gt;{0}&lt;/color&gt;次单位升级后，变为完全体。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -386,6 +374,26 @@
   </si>
   <si>
     <t>每消耗&lt;color=#008E11&gt;{0}&lt;/color&gt;金币，使所有单位攻击&lt;color=#008E11&gt;+{1}&lt;/color&gt;，并死亡变为残躯。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>未来科技成果可以通过与任意稀有度相等或更高的单位合并&lt;color=#BC3000&gt;升级&lt;/color&gt;。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买未来科技成员时，获得&lt;color=#008E11&gt;{0}&lt;/color&gt;金币。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#BC3000&gt;选中时&lt;/color&gt;，消耗&lt;color=#008E11&gt;1&lt;/color&gt;点耐久拆分出&lt;color=#008E11&gt;{0}&lt;/color&gt;个肢体。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以与任意稀有度更低的单位合并并使其&lt;color=#BC3000&gt;升级&lt;/color&gt;。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>封印的肢体</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -782,11 +790,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X70"/>
+  <dimension ref="A1:X72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D43" sqref="D43"/>
+      <selection pane="bottomLeft" activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -952,7 +960,7 @@
         <v>110001</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
@@ -960,7 +968,7 @@
         <v>111001</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
@@ -976,7 +984,7 @@
         <v>111002</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
@@ -984,7 +992,7 @@
         <v>100001</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
@@ -992,7 +1000,7 @@
         <v>100002</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
@@ -1134,152 +1142,152 @@
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28">
-        <v>101001</v>
+        <v>100020</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>46</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29">
-        <v>101002</v>
+        <v>101001</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30">
-        <v>101003</v>
+        <v>101002</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31">
-        <v>101004</v>
+        <v>101003</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>84</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32">
-        <v>101005</v>
+        <v>101004</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33">
-        <v>101006</v>
+        <v>101005</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34">
-        <v>101007</v>
+        <v>101006</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35">
-        <v>101008</v>
+        <v>101007</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36">
-        <v>101009</v>
+        <v>101008</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37">
-        <v>101010</v>
+        <v>101009</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B38">
-        <v>101011</v>
+        <v>101010</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39">
-        <v>101012</v>
+        <v>101011</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B40">
-        <v>101013</v>
+        <v>101012</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B41">
-        <v>101014</v>
+        <v>101013</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E41" s="1"/>
+        <v>50</v>
+      </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B42">
-        <v>101015</v>
+        <v>101014</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>86</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="E42" s="1"/>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B43">
-        <v>101016</v>
+        <v>101015</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B44">
-        <v>101017</v>
+        <v>101016</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B45">
-        <v>101018</v>
+        <v>101017</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B46">
-        <v>101019</v>
+        <v>101018</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>40</v>
@@ -1287,194 +1295,210 @@
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B47">
-        <v>120001</v>
+        <v>101019</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B48">
-        <v>120002</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>58</v>
+        <v>101020</v>
+      </c>
+      <c r="D48" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B49">
-        <v>120003</v>
+        <v>120001</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B50">
-        <v>120004</v>
+        <v>120002</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B51">
-        <v>120005</v>
+        <v>120003</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B52">
-        <v>120006</v>
+        <v>120004</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B53">
-        <v>130001</v>
+        <v>120005</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B54">
-        <v>130002</v>
+        <v>120006</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B55">
-        <v>130003</v>
+        <v>130001</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B56">
-        <v>130004</v>
+        <v>130002</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B57">
-        <v>130005</v>
+        <v>130003</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B58">
-        <v>130006</v>
+        <v>130004</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B59">
-        <v>130007</v>
+        <v>130005</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B60">
-        <v>130008</v>
+        <v>130006</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B61">
-        <v>130009</v>
+        <v>130007</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B62">
-        <v>131001</v>
+        <v>130008</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B63">
-        <v>131002</v>
+        <v>130009</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B64">
-        <v>131003</v>
+        <v>131001</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B65">
-        <v>131004</v>
+        <v>131002</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B66">
-        <v>131005</v>
+        <v>131003</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B67">
-        <v>131006</v>
+        <v>131004</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B68">
-        <v>131007</v>
+        <v>131005</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B69">
-        <v>131008</v>
+        <v>131006</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B70">
+        <v>131007</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B71">
+        <v>131008</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B72">
         <v>131009</v>
       </c>
-      <c r="D70" s="1" t="s">
-        <v>74</v>
+      <c r="D72" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/tables/localization_mod.xlsx
+++ b/tables/localization_mod.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\rhmod\rh-wlj-mod\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C2F6381-CB08-41B7-A8A8-46D9F5964E84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B2D6A0F-0FC2-493A-8C66-AD998F1CE085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="252" windowWidth="30936" windowHeight="17136" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -373,10 +373,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>每消耗&lt;color=#008E11&gt;{0}&lt;/color&gt;金币，使所有单位攻击&lt;color=#008E11&gt;+{1}&lt;/color&gt;，并死亡变为残躯。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>未来科技成果可以通过与任意稀有度相等或更高的单位合并&lt;color=#BC3000&gt;升级&lt;/color&gt;。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -394,6 +390,10 @@
   </si>
   <si>
     <t>封印的肢体</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每消耗&lt;color=#008E11&gt;{0}&lt;/color&gt;金币，使所有单位获得等同于自身的攻击，并死亡变为残躯。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -793,8 +793,8 @@
   <dimension ref="A1:X72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D40" sqref="D40"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1145,7 +1145,7 @@
         <v>100020</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
@@ -1274,7 +1274,7 @@
         <v>101016</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.25">
@@ -1298,7 +1298,7 @@
         <v>101019</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.25">
@@ -1306,7 +1306,7 @@
         <v>101020</v>
       </c>
       <c r="D48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.25">
@@ -1474,7 +1474,7 @@
         <v>131006</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.25">
@@ -1482,7 +1482,7 @@
         <v>131007</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.25">
